--- a/data/case1/18/Qlm1_14.xlsx
+++ b/data/case1/18/Qlm1_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.28482934603188426</v>
+        <v>-0.24779303665832941</v>
       </c>
       <c r="B1" s="0">
-        <v>0.28455049688123069</v>
+        <v>0.24759424728270574</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17888559919739411</v>
+        <v>-0.17858012829818115</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17838278255712758</v>
+        <v>0.17807940251682464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.12867765452322821</v>
+        <v>-0.12837497082954386</v>
       </c>
       <c r="B3" s="0">
-        <v>0.12836497725426277</v>
+        <v>0.12804905231882557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12036497727407536</v>
+        <v>-0.12004905233703766</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11978100856836349</v>
+        <v>0.11949294530657362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11678100858027829</v>
+        <v>-0.1164929453172725</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11478111313258044</v>
+        <v>0.11459113033694823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.041595919921110891</v>
+        <v>-0.010335881732736141</v>
       </c>
       <c r="B6" s="0">
-        <v>0.041193750374267424</v>
+        <v>0.010210989266926873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.031193750403136544</v>
+        <v>-0.0067446028468141073</v>
       </c>
       <c r="B7" s="0">
-        <v>0.031102014514980514</v>
+        <v>0.00672034925122178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.02110201454455618</v>
+        <v>0.0032796507226602323</v>
       </c>
       <c r="B8" s="0">
-        <v>0.020956729414109532</v>
+        <v>-0.0032979195366960035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.018956729429538299</v>
+        <v>0.0052979195246911637</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018843301356209263</v>
+        <v>-0.0053076089017185524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.016843301372356123</v>
+        <v>0.0073076088898673675</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01683613795946215</v>
+        <v>-0.0073075947812508701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013836137977488505</v>
+        <v>0.010307594767648531</v>
       </c>
       <c r="B11" s="0">
-        <v>0.013825524119761567</v>
+        <v>-0.010308310748856186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020867623146665348</v>
+        <v>0.013808310734420903</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020672488316574977</v>
+        <v>-0.013823714788694375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017172488336816727</v>
+        <v>0.0173237147748182</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017083365595864208</v>
+        <v>-0.017341826852090847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090833656248578976</v>
+        <v>0.025341826830586278</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090540080100662834</v>
+        <v>-0.025379680575587038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008054008026192605</v>
+        <v>0.026379680566772201</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008035028815552181</v>
+        <v>-0.026431268506288852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060350288337565061</v>
+        <v>-0.0060329649972867827</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003744978082981</v>
+        <v>0.0060035311199606589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040037449965986127</v>
+        <v>-0.0040035311302011323</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999776547668</v>
+        <v>0.0039999999861910496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.099664897695763699</v>
+        <v>-0.063014118995603496</v>
       </c>
       <c r="B18" s="0">
-        <v>0.099457444682354179</v>
+        <v>0.062920712466421946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.082090233882828656</v>
+        <v>-0.012092108468504836</v>
       </c>
       <c r="B19" s="0">
-        <v>0.080989835343648231</v>
+        <v>0.012017240249716288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.076989835356613412</v>
+        <v>-0.008017240258018532</v>
       </c>
       <c r="B20" s="0">
-        <v>0.076661894095549243</v>
+        <v>0.0080057315608090818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040058892162138093</v>
+        <v>-0.0040057315691983675</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999859681168</v>
+        <v>0.0039999999915458773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045705128044874144</v>
+        <v>-0.045704431697247472</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493625989331932</v>
+        <v>0.04549312564030572</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049362600277373</v>
+        <v>-0.040493125652532491</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098043165755826</v>
+        <v>0.040097948642451087</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098043208371053</v>
+        <v>-0.020097948682002986</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999956843872</v>
+        <v>0.019999999959969372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.071185193225074883</v>
+        <v>-0.097220800435295018</v>
       </c>
       <c r="B25" s="0">
-        <v>0.071111669391422438</v>
+        <v>0.097096811824496143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.068611669406344333</v>
+        <v>-0.094596811837796224</v>
       </c>
       <c r="B26" s="0">
-        <v>0.068520036714001975</v>
+        <v>0.094437815344743825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.066020036729582454</v>
+        <v>-0.091937815358732689</v>
       </c>
       <c r="B27" s="0">
-        <v>0.065496279599360552</v>
+        <v>0.091000745414713258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.063496279616498619</v>
+        <v>-0.089000745430853456</v>
       </c>
       <c r="B28" s="0">
-        <v>0.063149771167421598</v>
+        <v>0.088359054574217666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.05614977119568465</v>
+        <v>-0.081359054601407799</v>
       </c>
       <c r="B29" s="0">
-        <v>0.056058434600740448</v>
+        <v>0.081172666506382996</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0039415652711491944</v>
+        <v>-0.021172666627708114</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0039844866065297246</v>
+        <v>0.021024653762442114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.010984486577481078</v>
+        <v>-0.014024653791578245</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.010989655159331591</v>
+        <v>0.014001692059588677</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.020989655124799</v>
+        <v>-0.0040016920941194911</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.021009570333745842</v>
+        <v>0.0039999999759281479</v>
       </c>
     </row>
   </sheetData>
